--- a/spliced/walkingToRunning/2023-03-30_14-20-48/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-20-48/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07826220989227289</v>
+        <v>-3.284394264221191</v>
       </c>
       <c r="B2" t="n">
-        <v>-11.67457485198975</v>
+        <v>-6.207508087158203</v>
       </c>
       <c r="C2" t="n">
-        <v>-10.24078559875488</v>
+        <v>-9.360366821289062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.284394264221191</v>
+        <v>-2.543862819671631</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.207508087158203</v>
+        <v>-2.628618955612183</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.360366821289062</v>
+        <v>-11.02495956420898</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.543862819671631</v>
+        <v>9.523374557495115</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.628618955612183</v>
+        <v>-6.183863162994385</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.02495956420898</v>
+        <v>-2.546638011932373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.523374557495115</v>
+        <v>10.87078380584717</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.183863162994385</v>
+        <v>-0.2485504150390625</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.546638011932373</v>
+        <v>-1.897834300994873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.87078380584717</v>
+        <v>-25.65192222595215</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2485504150390625</v>
+        <v>-16.10989189147949</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.897834300994873</v>
+        <v>-27.1768741607666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-25.65192222595215</v>
+        <v>-17.75581932067871</v>
       </c>
       <c r="B7" t="n">
-        <v>-16.10989189147949</v>
+        <v>-3.263657808303833</v>
       </c>
       <c r="C7" t="n">
-        <v>-27.1768741607666</v>
+        <v>-17.43449020385742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-17.75581932067871</v>
+        <v>21.72449111938477</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.263657808303833</v>
+        <v>-16.76241874694824</v>
       </c>
       <c r="C8" t="n">
-        <v>-17.43449020385742</v>
+        <v>-7.28642463684082</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21.72449111938477</v>
+        <v>3.684173583984375</v>
       </c>
       <c r="B9" t="n">
-        <v>-16.76241874694824</v>
+        <v>-16.01864433288574</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.28642463684082</v>
+        <v>-9.982423782348633</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.684173583984375</v>
+        <v>-0.0730928182601928</v>
       </c>
       <c r="B10" t="n">
-        <v>-16.01864433288574</v>
+        <v>6.555614948272705</v>
       </c>
       <c r="C10" t="n">
-        <v>-9.982423782348633</v>
+        <v>-3.539213180541992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.0730928182601928</v>
+        <v>1.041769504547119</v>
       </c>
       <c r="B11" t="n">
-        <v>6.555614948272705</v>
+        <v>-30.36503982543945</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.539213180541992</v>
+        <v>31.26595878601075</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.041769504547119</v>
+        <v>38.83012771606445</v>
       </c>
       <c r="B12" t="n">
-        <v>-30.36503982543945</v>
+        <v>12.28195858001709</v>
       </c>
       <c r="C12" t="n">
-        <v>31.26595878601075</v>
+        <v>-19.02286911010743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>38.83012771606445</v>
+        <v>-7.558793067932129</v>
       </c>
       <c r="B13" t="n">
-        <v>12.28195858001709</v>
+        <v>-12.19493198394775</v>
       </c>
       <c r="C13" t="n">
-        <v>-19.02286911010743</v>
+        <v>-16.61202049255371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-7.558793067932129</v>
+        <v>0.2677345275878906</v>
       </c>
       <c r="B14" t="n">
-        <v>-12.19493198394775</v>
+        <v>-73.31625366210938</v>
       </c>
       <c r="C14" t="n">
-        <v>-16.61202049255371</v>
+        <v>24.66749572753906</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2677345275878906</v>
+        <v>1.331151604652405</v>
       </c>
       <c r="B15" t="n">
-        <v>-73.31625366210938</v>
+        <v>2.387452363967896</v>
       </c>
       <c r="C15" t="n">
-        <v>24.66749572753906</v>
+        <v>-8.010488510131836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.331151604652405</v>
+        <v>16.03682136535645</v>
       </c>
       <c r="B16" t="n">
-        <v>2.387452363967896</v>
+        <v>-33.019287109375</v>
       </c>
       <c r="C16" t="n">
-        <v>-8.010488510131836</v>
+        <v>43.97341537475586</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16.03682136535645</v>
+        <v>28.34896659851075</v>
       </c>
       <c r="B17" t="n">
-        <v>-33.019287109375</v>
+        <v>6.394547939300537</v>
       </c>
       <c r="C17" t="n">
-        <v>43.97341537475586</v>
+        <v>-27.16730880737305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>28.34896659851075</v>
+        <v>2.31614351272583</v>
       </c>
       <c r="B18" t="n">
-        <v>6.394547939300537</v>
+        <v>-4.862353324890137</v>
       </c>
       <c r="C18" t="n">
-        <v>-27.16730880737305</v>
+        <v>-18.97574234008789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.31614351272583</v>
+        <v>-14.28880977630615</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.862353324890137</v>
+        <v>-23.93070220947266</v>
       </c>
       <c r="C19" t="n">
-        <v>-18.97574234008789</v>
+        <v>2.869308471679688</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-14.28880977630615</v>
+        <v>6.518649578094482</v>
       </c>
       <c r="B20" t="n">
-        <v>-23.93070220947266</v>
+        <v>-0.0271482467651367</v>
       </c>
       <c r="C20" t="n">
-        <v>2.869308471679688</v>
+        <v>0.3105573654174804</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.518649578094482</v>
+        <v>9.343793869018556</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0271482467651367</v>
+        <v>9.33461856842041</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3105573654174804</v>
+        <v>8.671773910522461</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16.0465145111084</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-45.62339782714844</v>
+      </c>
+      <c r="C22" t="n">
+        <v>13.98112106323242</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>18.59218597412109</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.586655139923096</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-14.55167388916016</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-13.51971435546875</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-18.57223892211914</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-24.33260536193848</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-12.54771614074707</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-18.61154365539551</v>
+      </c>
+      <c r="C25" t="n">
+        <v>28.26399230957031</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.716351509094239</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.821096897125244</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-9.188434600830078</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41.91740417480469</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-71.66004180908203</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11.51219272613525</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>22.04729652404785</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.830233097076416</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-27.47162818908692</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-15.56076526641846</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-8.609291076660156</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-21.82845687866211</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-10.87422180175781</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-26.33984756469727</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.715606689453123</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4.591959953308105</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.822259902954102</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-12.29100227355957</v>
       </c>
     </row>
   </sheetData>
